--- a/Enemy-Data.xlsx
+++ b/Enemy-Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin.krueger\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin.krueger\Desktop\ggj2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Marine</t>
   </si>
@@ -553,7 +553,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,11 +600,9 @@
       <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="F3" s="9"/>
       <c r="H3" s="9">
-        <f>C3*((D3*40)/32)</f>
+        <f t="shared" ref="H3:H11" si="0">C3*((D3*40)/32)</f>
         <v>10</v>
       </c>
     </row>
@@ -621,11 +619,9 @@
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="H4" s="8">
-        <f>C4*((D4*40)/32)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -646,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="8">
-        <f>C5*((D5*40)/32)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
@@ -664,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H6" s="8">
-        <f>C6*((D6*40)/32)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -688,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="8">
-        <f>C7*((D7*40)/32)</f>
+        <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
     </row>
@@ -709,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="8">
-        <f>C8*((D8*40)/32)</f>
+        <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
     </row>
@@ -727,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H9" s="8">
-        <f>C9*((D9*40)/32)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -751,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="8">
-        <f>C10*((D10*40)/32)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -772,7 +768,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="8">
-        <f>C11*((D11*40)/32)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -845,11 +841,11 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f>C6/32</f>
+        <f t="shared" ref="B6:B17" si="0">C6/32</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>D6*40</f>
+        <f t="shared" ref="C6:C17" si="1">D6*40</f>
         <v>32</v>
       </c>
       <c r="D6" s="2">
@@ -859,21 +855,21 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>F6*32</f>
+        <f t="shared" ref="G6:G17" si="2">F6*32</f>
         <v>32</v>
       </c>
       <c r="H6">
-        <f>G6/40</f>
+        <f t="shared" ref="H6:H17" si="3">G6/40</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7">
-        <f>C7/32</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="C7">
-        <f>D7*40</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D7" s="3">
@@ -883,21 +879,21 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <f>F7*32</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H7">
-        <f>G7/40</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
-        <f>C8/32</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="C8">
-        <f>D8*40</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D8" s="3">
@@ -907,21 +903,21 @@
         <v>0.25</v>
       </c>
       <c r="G8">
-        <f>F8*32</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H8">
-        <f>G8/40</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
-        <f>C9/32</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="C9">
-        <f>D9*40</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D9" s="3">
@@ -931,21 +927,21 @@
         <v>1.5</v>
       </c>
       <c r="G9">
-        <f>F9*32</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="H9">
-        <f>G9/40</f>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10">
-        <f>C10/32</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C10">
-        <f>D10*40</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D10" s="3">
@@ -955,151 +951,151 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>F10*32</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="H10">
-        <f>G10/40</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11">
-        <f>C11/32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>D11*40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11">
-        <f>F11*32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>G11/40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12">
-        <f>C12/32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>D12*40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12">
-        <f>F12*32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>G12/40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13">
-        <f>C13/32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>D13*40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13">
-        <f>F13*32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>G13/40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14">
-        <f>C14/32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>D14*40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14">
-        <f>F14*32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>G14/40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15">
-        <f>C15/32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>D15*40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15">
-        <f>F15*32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>G15/40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16">
-        <f>C16/32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>D16*40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16">
-        <f>F16*32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>G16/40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17">
-        <f>C17/32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>D17*40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17">
-        <f>F17*32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>G17/40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/Enemy-Data.xlsx
+++ b/Enemy-Data.xlsx
@@ -60,9 +60,6 @@
     <t>Felder pro Sekunde</t>
   </si>
   <si>
-    <t>Private</t>
-  </si>
-  <si>
     <t>Tank</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Weg (Felder) bei 1 Schaden pro Sekunde</t>
+  </si>
+  <si>
+    <t>Elite</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +564,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9">
         <v>0.8</v>
@@ -603,18 +603,18 @@
       <c r="F3" s="9"/>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H11" si="0">C3*((D3*40)/32)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -622,15 +622,15 @@
       <c r="F4" s="8"/>
       <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D5" s="8">
         <v>0.2</v>
@@ -639,19 +639,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8">
         <v>1.6</v>
@@ -664,15 +664,15 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>18.75</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="D8" s="8">
         <v>0.6</v>
@@ -702,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>18.75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8">
         <v>0.8</v>
@@ -723,19 +723,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8">
         <v>1.6</v>
@@ -744,19 +744,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="D11" s="8">
         <v>0.4</v>
@@ -765,11 +765,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
@@ -827,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -836,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">

--- a/Enemy-Data.xlsx
+++ b/Enemy-Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Marine</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Elite</t>
+  </si>
+  <si>
+    <t>Spec-Ops</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -270,6 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -553,7 +557,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +606,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H11" si="0">C3*((D3*40)/32)</f>
+        <f t="shared" ref="H3:H12" si="0">C3*((D3*40)/32)</f>
         <v>15</v>
       </c>
     </row>
@@ -630,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D5" s="8">
         <v>0.2</v>
@@ -643,7 +647,7 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -693,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="8">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D8" s="8">
         <v>0.6</v>
@@ -706,7 +710,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -770,6 +774,27 @@
       <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">

--- a/Enemy-Data.xlsx
+++ b/Enemy-Data.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
@@ -607,7 +607,7 @@
       <c r="F3" s="9"/>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H12" si="0">C3*((D3*40)/32)</f>
-        <v>15</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -615,10 +615,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -626,7 +626,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>28.4375</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="8">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -676,10 +676,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="8">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -697,10 +697,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="8">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D8" s="8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -721,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="8">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="8">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>250</v>
       </c>
       <c r="D11" s="8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
-        <v>43.75</v>
+        <v>32.8125</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
@@ -823,7 +823,7 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,13 +987,15 @@
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.6</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11">
         <f t="shared" si="2"/>

--- a/Enemy-Data.xlsx
+++ b/Enemy-Data.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>40.625</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">

--- a/Enemy-Data.xlsx
+++ b/Enemy-Data.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" s="8">
         <v>0.65</v>
@@ -626,7 +626,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>28.4375</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8">
         <v>0.3</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8">
         <v>1.2</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8">
         <v>0.8</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="8">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8">
         <v>0.4</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <v>0.6</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8">
         <v>1.2</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="8">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D11" s="8">
         <v>0.2</v>
@@ -773,15 +773,15 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12">
-        <v>35</v>
+      <c r="C12" s="8">
+        <v>30</v>
       </c>
       <c r="D12" s="12">
         <v>0.75</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
-        <v>32.8125</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">

--- a/Enemy-Data.xlsx
+++ b/Enemy-Data.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8">
         <v>0.6</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -760,10 +760,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="8">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D11" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">

--- a/Enemy-Data.xlsx
+++ b/Enemy-Data.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
@@ -607,7 +607,7 @@
       <c r="F3" s="9"/>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H12" si="0">C3*((D3*40)/32)</f>
-        <v>10.5</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="8">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -626,7 +626,7 @@
       <c r="F4" s="8"/>
       <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>22.75</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>26.25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="8">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -679,7 +679,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>90</v>
       </c>
       <c r="D8" s="8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -721,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="8">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>56.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -784,7 +784,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="12">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
-        <v>28.125</v>
+        <v>31.875</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
